--- a/stock_historical_data/1mo/EXICOM.NS.xlsx
+++ b/stock_historical_data/1mo/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,63 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B4" t="n">
+        <v>336.2000122070312</v>
+      </c>
+      <c r="C4" t="n">
+        <v>336.2000122070312</v>
+      </c>
+      <c r="D4" t="n">
+        <v>336.2000122070312</v>
+      </c>
+      <c r="E4" t="n">
+        <v>336.2000122070312</v>
+      </c>
+      <c r="F4" t="n">
+        <v>336.2000122070312</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>22</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/EXICOM.NS.xlsx
+++ b/stock_historical_data/1mo/EXICOM.NS.xlsx
@@ -693,7 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/EXICOM.NS.xlsx
+++ b/stock_historical_data/1mo/EXICOM.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B2" t="n">
-        <v>200.25</v>
+        <v>265</v>
       </c>
       <c r="C2" t="n">
-        <v>314</v>
+        <v>274.5</v>
       </c>
       <c r="D2" t="n">
-        <v>197.5</v>
+        <v>169.3999938964844</v>
       </c>
       <c r="E2" t="n">
-        <v>299.4500122070312</v>
-      </c>
-      <c r="F2" t="n">
-        <v>299.4500122070312</v>
-      </c>
+        <v>197.3500061035156</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>67213266</v>
+        <v>91791360</v>
       </c>
       <c r="H2" t="n">
         <v>2024</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B3" t="n">
+        <v>200.25</v>
+      </c>
+      <c r="C3" t="n">
+        <v>314</v>
+      </c>
+      <c r="D3" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="E3" t="n">
         <v>299.4500122070312</v>
       </c>
-      <c r="C3" t="n">
-        <v>346.7000122070312</v>
-      </c>
-      <c r="D3" t="n">
-        <v>248.8999938964844</v>
-      </c>
-      <c r="E3" t="n">
-        <v>313.2999877929688</v>
-      </c>
       <c r="F3" t="n">
-        <v>313.2999877929688</v>
+        <v>299.4500122070312</v>
       </c>
       <c r="G3" t="n">
-        <v>47396790</v>
+        <v>67213266</v>
       </c>
       <c r="H3" t="n">
         <v>2024</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,56 +624,514 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B4" t="n">
-        <v>336.2000122070312</v>
+        <v>299.4500122070312</v>
       </c>
       <c r="C4" t="n">
-        <v>337.9500122070312</v>
+        <v>346.7000122070312</v>
       </c>
       <c r="D4" t="n">
-        <v>252.0500030517578</v>
+        <v>248.8999938964844</v>
       </c>
       <c r="E4" t="n">
-        <v>304.1000061035156</v>
+        <v>313.2999877929688</v>
       </c>
       <c r="F4" t="n">
-        <v>304.1000061035156</v>
+        <v>313.2999877929688</v>
       </c>
       <c r="G4" t="n">
-        <v>14263556</v>
+        <v>47396790</v>
       </c>
       <c r="H4" t="n">
         <v>2024</v>
       </c>
       <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>18</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B5" t="n">
+        <v>336.2000122070312</v>
+      </c>
+      <c r="C5" t="n">
+        <v>337.9500122070312</v>
+      </c>
+      <c r="D5" t="n">
+        <v>252.0500030517578</v>
+      </c>
+      <c r="E5" t="n">
+        <v>304.1000061035156</v>
+      </c>
+      <c r="F5" t="n">
+        <v>304.1000061035156</v>
+      </c>
+      <c r="G5" t="n">
+        <v>14263556</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I5" t="n">
         <v>6</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>22</v>
       </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B6" t="n">
+        <v>456.7000122070312</v>
+      </c>
+      <c r="C6" t="n">
+        <v>530</v>
+      </c>
+      <c r="D6" t="n">
+        <v>415.1000061035156</v>
+      </c>
+      <c r="E6" t="n">
+        <v>446.6499938964844</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>24360453</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>27</v>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B7" t="n">
+        <v>449.8500061035156</v>
+      </c>
+      <c r="C7" t="n">
+        <v>460</v>
+      </c>
+      <c r="D7" t="n">
+        <v>380</v>
+      </c>
+      <c r="E7" t="n">
+        <v>385.5499877929688</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>5433047</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>31</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B8" t="n">
+        <v>389.9500122070312</v>
+      </c>
+      <c r="C8" t="n">
+        <v>391.2000122070312</v>
+      </c>
+      <c r="D8" t="n">
+        <v>309.5499877929688</v>
+      </c>
+      <c r="E8" t="n">
+        <v>313.8500061035156</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>9290652</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>35</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B9" t="n">
+        <v>319.75</v>
+      </c>
+      <c r="C9" t="n">
+        <v>349</v>
+      </c>
+      <c r="D9" t="n">
+        <v>293.8999938964844</v>
+      </c>
+      <c r="E9" t="n">
+        <v>309.25</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>7862374</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>40</v>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B10" t="n">
+        <v>314.7999877929688</v>
+      </c>
+      <c r="C10" t="n">
+        <v>375</v>
+      </c>
+      <c r="D10" t="n">
+        <v>257.3500061035156</v>
+      </c>
+      <c r="E10" t="n">
+        <v>277.5</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>13586465</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>44</v>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B11" t="n">
+        <v>274.6499938964844</v>
+      </c>
+      <c r="C11" t="n">
+        <v>295.3500061035156</v>
+      </c>
+      <c r="D11" t="n">
+        <v>242.3999938964844</v>
+      </c>
+      <c r="E11" t="n">
+        <v>247.3000030517578</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>6011069</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>48</v>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B12" t="n">
+        <v>247</v>
+      </c>
+      <c r="C12" t="n">
+        <v>275.7099914550781</v>
+      </c>
+      <c r="D12" t="n">
+        <v>226.6300048828125</v>
+      </c>
+      <c r="E12" t="n">
+        <v>245.0099945068359</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>8791927</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B13" t="n">
+        <v>246</v>
+      </c>
+      <c r="C13" t="n">
+        <v>254.1999969482422</v>
+      </c>
+      <c r="D13" t="n">
+        <v>152.6999969482422</v>
+      </c>
+      <c r="E13" t="n">
+        <v>153.4299926757812</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>10183145</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5</v>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B14" t="n">
+        <v>156.9900054931641</v>
+      </c>
+      <c r="C14" t="n">
+        <v>169.6799926757812</v>
+      </c>
+      <c r="D14" t="n">
+        <v>130.3699951171875</v>
+      </c>
+      <c r="E14" t="n">
+        <v>147.4400024414062</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>12056209</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9</v>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
